--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/fossielaard/fossielaard.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/fossielaard/fossielaard.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,453 +413,382 @@
         <v>dc\.identifier</v>
       </c>
       <c r="D1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="E1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="E1" t="str">
-        <v>member</v>
-      </c>
       <c r="F1" t="str">
+        <v>notation</v>
+      </c>
+      <c r="G1" t="str">
+        <v>note</v>
+      </c>
+      <c r="H1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="G1" t="str">
-        <v>notation</v>
-      </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>topConceptOf</v>
-      </c>
-      <c r="I1" t="str">
-        <v>definition</v>
       </c>
       <c r="J1" t="str">
         <v>hasTopConcept</v>
       </c>
-      <c r="K1" t="str">
-        <v>note</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/collection/fossielaard/fossielaard</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/brakwaterfauna</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.collection.fossielaard.fossielaard</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.brakwaterfauna</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Fossiel van dierlijke oorsprong uit een brakwateromgeving (bv. estuarium).</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/brakwaterfauna|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/brakwaterichnofossiel|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/fauna|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/flora|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/ichnofossiel|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/marienefauna|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/marienichnofossiel|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/onbepaald|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/zoetwaterfauna|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/zoetwaterichnofossiel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F2" t="str">
-        <v>Collectie van fossielaard.</v>
+        <v>brakwaterfauna</v>
       </c>
       <c r="G2" t="str">
-        <v>null</v>
+        <v>Fossiel van dierlijke oorsprong uit een brakwateromgeving (bv. estuarium).</v>
       </c>
       <c r="H2" t="str">
-        <v>null</v>
+        <v>brakwaterfauna</v>
       </c>
       <c r="I2" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J2" t="str">
-        <v>null</v>
-      </c>
-      <c r="K2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/brakwaterfauna</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/brakwaterichnofossiel</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.brakwaterfauna</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.brakwaterichnofossiel</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Sporenfossiel uit een brakwateromgeving.</v>
       </c>
       <c r="E3" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F3" t="str">
-        <v>brakwaterfauna</v>
+        <v>brakwaterichnofossiel</v>
       </c>
       <c r="G3" t="str">
-        <v>brakwaterfauna</v>
+        <v>Sporenfossiel uit een brakwateromgeving.</v>
       </c>
       <c r="H3" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>brakwaterichnofossiel</v>
       </c>
       <c r="I3" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J3" t="str">
-        <v>null</v>
-      </c>
-      <c r="K3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/brakwaterichnofossiel</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/fauna</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.brakwaterichnofossiel</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.fauna</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Fossiel van dierlijke oorsprong.</v>
       </c>
       <c r="E4" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F4" t="str">
-        <v>brakwaterichnofossiel</v>
+        <v>fauna</v>
       </c>
       <c r="G4" t="str">
-        <v>brakwaterichnofossiel</v>
+        <v>Fossiel van dierlijke oorsprong.</v>
       </c>
       <c r="H4" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>fauna</v>
       </c>
       <c r="I4" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J4" t="str">
-        <v>null</v>
-      </c>
-      <c r="K4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/fauna</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/flora</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.fauna</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.flora</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Fossiel van plantaardige oorsprong.</v>
       </c>
       <c r="E5" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F5" t="str">
-        <v>fauna</v>
+        <v>flora</v>
       </c>
       <c r="G5" t="str">
-        <v>fauna</v>
+        <v>Fossiel van plantaardige oorsprong.</v>
       </c>
       <c r="H5" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>flora</v>
       </c>
       <c r="I5" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J5" t="str">
-        <v>null</v>
-      </c>
-      <c r="K5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/flora</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/ichnofossiel</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.flora</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.ichnofossiel</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Sporenfossiel.</v>
       </c>
       <c r="E6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F6" t="str">
-        <v>flora</v>
+        <v>ichnofossiel</v>
       </c>
       <c r="G6" t="str">
-        <v>flora</v>
+        <v>Sporenfossiel.</v>
       </c>
       <c r="H6" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>ichnofossiel</v>
       </c>
       <c r="I6" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J6" t="str">
-        <v>null</v>
-      </c>
-      <c r="K6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/ichnofossiel</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/marienefauna</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.ichnofossiel</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.marienefauna</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Fossiel van dierlijke oorsprong uit een mariene omgeving.</v>
       </c>
       <c r="E7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F7" t="str">
-        <v>ichnofossiel</v>
+        <v>marienefauna</v>
       </c>
       <c r="G7" t="str">
-        <v>ichnofossiel</v>
+        <v>Fossiel van dierlijke oorsprong uit een mariene omgeving.</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>mariene fauna</v>
       </c>
       <c r="I7" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J7" t="str">
-        <v>null</v>
-      </c>
-      <c r="K7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/marienefauna</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/marienichnofossiel</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.marienefauna</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.marienichnofossiel</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Sporenfossiel uit een mariene omgeving.</v>
       </c>
       <c r="E8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F8" t="str">
-        <v>mariene fauna</v>
+        <v>marienichnofossiel</v>
       </c>
       <c r="G8" t="str">
-        <v>marienefauna</v>
+        <v>Sporenfossiel uit een mariene omgeving.</v>
       </c>
       <c r="H8" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>marien ichnofossiel</v>
       </c>
       <c r="I8" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J8" t="str">
-        <v>null</v>
-      </c>
-      <c r="K8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/marienichnofossiel</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/onbepaald</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.marienichnofossiel</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.onbepaald</v>
       </c>
       <c r="D9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Fossiel van onbepaalde oorsprong.</v>
       </c>
       <c r="E9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F9" t="str">
-        <v>marien ichnofossiel</v>
+        <v>onbepaald</v>
       </c>
       <c r="G9" t="str">
-        <v>marienichnofossiel</v>
+        <v>Fossiel van onbepaalde oorsprong.</v>
       </c>
       <c r="H9" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>onbepaald</v>
       </c>
       <c r="I9" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J9" t="str">
-        <v>null</v>
-      </c>
-      <c r="K9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/onbepaald</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/zoetwaterfauna</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.onbepaald</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.zoetwaterfauna</v>
       </c>
       <c r="D10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Fossiel van dierlijke oorsprong uit een zoetwateromgeving.</v>
       </c>
       <c r="E10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F10" t="str">
-        <v>onbepaald</v>
+        <v>zoetwaterfauna</v>
       </c>
       <c r="G10" t="str">
-        <v>onbepaald</v>
+        <v>Fossiel van dierlijke oorsprong uit een zoetwateromgeving.</v>
       </c>
       <c r="H10" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>zoetwaterfauna</v>
       </c>
       <c r="I10" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J10" t="str">
-        <v>null</v>
-      </c>
-      <c r="K10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/zoetwaterfauna</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/zoetwaterichnofossiel</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.zoetwaterfauna</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.zoetwaterichnofossiel</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>Sporenfossiel uit een zoetwateromgeving.</v>
       </c>
       <c r="E11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="F11" t="str">
-        <v>zoetwaterfauna</v>
+        <v>zoetwaterichnofossiel</v>
       </c>
       <c r="G11" t="str">
-        <v>zoetwaterfauna</v>
+        <v>Sporenfossiel uit een zoetwateromgeving.</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>zoetwaterichnofossiel</v>
       </c>
       <c r="I11" t="str">
-        <v>null</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="J11" t="str">
-        <v>null</v>
-      </c>
-      <c r="K11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/zoetwaterichnofossiel</v>
+        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
       </c>
       <c r="B12" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C12" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.fossielaard.zoetwaterichnofossiel</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.fossielaard</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>null</v>
       </c>
       <c r="E12" t="str">
         <v>null</v>
       </c>
       <c r="F12" t="str">
-        <v>zoetwaterichnofossiel</v>
+        <v>null</v>
       </c>
       <c r="G12" t="str">
-        <v>zoetwaterichnofossiel</v>
+        <v>null</v>
       </c>
       <c r="H12" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
+        <v>lijst met soorten fossielen</v>
       </c>
       <c r="I12" t="str">
         <v>null</v>
       </c>
       <c r="J12" t="str">
-        <v>null</v>
-      </c>
-      <c r="K12" t="str">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/fossielaard</v>
-      </c>
-      <c r="B13" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C13" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.fossielaard</v>
-      </c>
-      <c r="D13" t="str">
-        <v>null</v>
-      </c>
-      <c r="E13" t="str">
-        <v>null</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Codelijst fossielaard.</v>
-      </c>
-      <c r="G13" t="str">
-        <v>null</v>
-      </c>
-      <c r="H13" t="str">
-        <v>null</v>
-      </c>
-      <c r="I13" t="str">
-        <v>Indicatie van fossielaard.</v>
-      </c>
-      <c r="J13" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/brakwaterfauna|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/brakwaterichnofossiel|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/fauna|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/flora|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/ichnofossiel|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/marienefauna|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/marienichnofossiel|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/onbepaald|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/zoetwaterfauna|https://data.bodemenondergrond.vlaanderen.be/id/concept/fossielaard/zoetwaterichnofossiel</v>
-      </c>
-      <c r="K13" t="str">
-        <v>Indicatie van fossielaard.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J12"/>
   </ignoredErrors>
 </worksheet>
 </file>